--- a/data/hotels_by_city/Denver/Denver_shard_205.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_205.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
   <si>
     <t>STR#</t>
   </si>
@@ -139,6 +139,165 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33330-d2281579-r592582935-Omni_Interlocken_Resort_Golf_Club-Broomfield_Colorado.html</t>
+  </si>
+  <si>
+    <t>33330</t>
+  </si>
+  <si>
+    <t>2281579</t>
+  </si>
+  <si>
+    <t>592582935</t>
+  </si>
+  <si>
+    <t>07/02/2018</t>
+  </si>
+  <si>
+    <t>Golf course in great shape</t>
+  </si>
+  <si>
+    <t>We were in town staying at the hotel and played all 27 holes on the course. The staff was friendly and helpful and they were grilling BBQ chicken sandwiches on the grill. The course was in great shape and fun to play. The sandwich was delicious too! I would stay and play again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33330-d2281579-r590643808-Omni_Interlocken_Resort_Golf_Club-Broomfield_Colorado.html</t>
+  </si>
+  <si>
+    <t>590643808</t>
+  </si>
+  <si>
+    <t>06/25/2018</t>
+  </si>
+  <si>
+    <t>Professional and Friendly</t>
+  </si>
+  <si>
+    <t>Recently stayed for 4 nights - great experience. Also played 18 holes - great and fun course well maintained. I'd stay again if needing to in Broomfield or close by. I would recommend this hotel - plenty of gold and shopping and restaraunts close by.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33330-d2281579-r579536943-Omni_Interlocken_Resort_Golf_Club-Broomfield_Colorado.html</t>
+  </si>
+  <si>
+    <t>579536943</t>
+  </si>
+  <si>
+    <t>05/11/2018</t>
+  </si>
+  <si>
+    <t>not up to the level of good yet</t>
+  </si>
+  <si>
+    <t>I had played here many years ago &amp; thought that it was a nice course, so when the wife wanted to get away for a few days I was excited to stay and play!well the poor course didn't far to well over the Winter. it looked as the geese got the better end of that deal by scouring all the grass off.of the 3 nines the Vista is my favorite, followed by the Eldorado, then the Sunshine nine.the carts had usb ports to charge your phone or other devises which was nice as well as a gps system, but the flags lacked a reflector for my personal distance laser finder.good thing I got a discount green fee thru Omni, as I would have been pissed if I had to pay $130 for what was offered. a lot of fantastic golf courses out there if you don't keep it Maintained I will go somewhere else.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33330-d2281579-r502279060-Omni_Interlocken_Resort_Golf_Club-Broomfield_Colorado.html</t>
+  </si>
+  <si>
+    <t>502279060</t>
+  </si>
+  <si>
+    <t>07/15/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>We were there for a 7 night family vacation. The had a mountain view room and it was great. Check-in was quick and to our surprise our room was ready early. The rooms were very clean. We ate lunch at Meritage and was not overly impressed with the food, it was okay and pricey for what you get. Our server was a little confused and forgot a few things. The Tap Room food was a little better but not much of a selection, the plus is that we ate on the outside terrace. The only drawback, is that the Tap Room doesn't open until 4:00pm. The pool area was very nice and clean. There was a lot of work conventions going on during our entire stay. It was very busy but I was impressed that it was so clean with so much going on and there were also a couple of weddings too. It's a little pricey but all in all it was a nice place.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33330-d2281579-r501776944-Omni_Interlocken_Resort_Golf_Club-Broomfield_Colorado.html</t>
+  </si>
+  <si>
+    <t>501776944</t>
+  </si>
+  <si>
+    <t>07/13/2017</t>
+  </si>
+  <si>
+    <t>So so</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The setting outside at the gold course is lovely and the service was great The steaks were tasteless and over cooked Very disappointing </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33330-d2281579-r496277380-Omni_Interlocken_Resort_Golf_Club-Broomfield_Colorado.html</t>
+  </si>
+  <si>
+    <t>496277380</t>
+  </si>
+  <si>
+    <t>06/26/2017</t>
+  </si>
+  <si>
+    <t>I lived here for 2 months. I would have gladly stayed permanently.</t>
+  </si>
+  <si>
+    <t>I stayed here for 8 weeks while relocating for a job. I honestly cannot recall ever getting better service from a hotel. I'll put the staff of the Omni Interlocken up against any Four Seasons. They gave me a long-term rate as most hotels will but did not cut services of any kind (as most hotels do when they give you a deal). Now that we live here permanently we choose to stay here several nights a year just because. The golf course and spa are both nice. The rooms are wonderful with outstanding beds. It's clean and the staff are as attentive as can be. What could have been a lonely and stressful two-month relocation was instead a vacation. Highly recommend.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33330-d2281579-r479867187-Omni_Interlocken_Resort_Golf_Club-Broomfield_Colorado.html</t>
+  </si>
+  <si>
+    <t>479867187</t>
+  </si>
+  <si>
+    <t>04/28/2017</t>
+  </si>
+  <si>
+    <t>Road trip</t>
+  </si>
+  <si>
+    <t>Very nice hotel with a beautiful view of the mountains. This was part of our road trip to Utah, from Fort Worth. We hit a late winter storm and decided not to risk going over the Rocky Mountains. Fantastic service and hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33330-d2281579-r474261105-Omni_Interlocken_Resort_Golf_Club-Broomfield_Colorado.html</t>
+  </si>
+  <si>
+    <t>474261105</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>A great place for a staycation!!</t>
+  </si>
+  <si>
+    <t>I have been visiting the Omni for years as a golfer and also a pool side lounger. The atmosphere is ceratinly a resort feel and although I live only 15 min. away, it feels like I have traveled to another vacation place while I am there. The staff are pleasant and attentive, food is great and the golf will challenge anyone regardless of handicap. Give it a try!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33330-d2281579-r472926117-Omni_Interlocken_Resort_Golf_Club-Broomfield_Colorado.html</t>
+  </si>
+  <si>
+    <t>472926117</t>
+  </si>
+  <si>
+    <t>04/05/2017</t>
+  </si>
+  <si>
+    <t>Beautiful hotel</t>
+  </si>
+  <si>
+    <t>Just not impressed with rooms, but would still recommend for the area. Staff very friendly &amp; helpful. Was there for a fund raising event.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33330-d2281579-r460489790-Omni_Interlocken_Resort_Golf_Club-Broomfield_Colorado.html</t>
+  </si>
+  <si>
+    <t>460489790</t>
+  </si>
+  <si>
+    <t>02/16/2017</t>
+  </si>
+  <si>
+    <t>Worth it for the spa</t>
+  </si>
+  <si>
+    <t>Loved the hotel experience. Everything was light and airy. Staff was friendly and accommodating but my favorite was the spa!</t>
   </si>
 </sst>
 </file>
@@ -633,6 +792,536 @@
         <v>40</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>38635</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>38635</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>38635</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>38635</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>38635</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>38635</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>38635</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>38635</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>38635</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" t="s">
+        <v>87</v>
+      </c>
+      <c r="L10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>38635</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J11" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L11" t="s">
+        <v>93</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>